--- a/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
+++ b/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -7953,11 +7953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157016064"/>
-        <c:axId val="157017600"/>
+        <c:axId val="148417536"/>
+        <c:axId val="153228032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157016064"/>
+        <c:axId val="148417536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7966,7 +7966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157017600"/>
+        <c:crossAx val="153228032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7974,7 +7974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157017600"/>
+        <c:axId val="153228032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +7985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157016064"/>
+        <c:crossAx val="148417536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8052,6 +8052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8316,8 +8317,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156901760"/>
-        <c:axId val="156903296"/>
+        <c:axId val="153173376"/>
+        <c:axId val="153183360"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8565,11 +8566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156918912"/>
-        <c:axId val="156904832"/>
+        <c:axId val="153198976"/>
+        <c:axId val="153184896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156901760"/>
+        <c:axId val="153173376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -8581,12 +8582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156903296"/>
+        <c:crossAx val="153183360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156903296"/>
+        <c:axId val="153183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8597,12 +8598,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156901760"/>
+        <c:crossAx val="153173376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156904832"/>
+        <c:axId val="153184896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8612,12 +8613,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156918912"/>
+        <c:crossAx val="153198976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156918912"/>
+        <c:axId val="153198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8627,13 +8628,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156904832"/>
+        <c:crossAx val="153184896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9152,8 +9154,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156944640"/>
-        <c:axId val="159977472"/>
+        <c:axId val="154084864"/>
+        <c:axId val="154086400"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9404,11 +9406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159980544"/>
-        <c:axId val="159979008"/>
+        <c:axId val="154114304"/>
+        <c:axId val="154112768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156944640"/>
+        <c:axId val="154084864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -9420,12 +9422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159977472"/>
+        <c:crossAx val="154086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159977472"/>
+        <c:axId val="154086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -9437,12 +9439,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156944640"/>
+        <c:crossAx val="154084864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159979008"/>
+        <c:axId val="154112768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -9453,12 +9455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159980544"/>
+        <c:crossAx val="154114304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159980544"/>
+        <c:axId val="154114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9468,13 +9470,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159979008"/>
+        <c:crossAx val="154112768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9755,8 +9758,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160018816"/>
-        <c:axId val="160020352"/>
+        <c:axId val="154211840"/>
+        <c:axId val="154213376"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10007,11 +10010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160023680"/>
-        <c:axId val="160021888"/>
+        <c:axId val="154228992"/>
+        <c:axId val="154227456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160018816"/>
+        <c:axId val="154211840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10021,12 +10024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160020352"/>
+        <c:crossAx val="154213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160020352"/>
+        <c:axId val="154213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10037,12 +10040,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160018816"/>
+        <c:crossAx val="154211840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160021888"/>
+        <c:axId val="154227456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10052,12 +10055,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160023680"/>
+        <c:crossAx val="154228992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160023680"/>
+        <c:axId val="154228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10067,13 +10070,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160021888"/>
+        <c:crossAx val="154227456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10109,8 +10113,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Compare Sleep Steps'!$C$1</c:f>
@@ -10118,6 +10122,496 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Schritte / Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8885</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energieverbrauch in Kilokalorien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="77906304"/>
+        <c:axId val="77900416"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stimmung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10244,6 +10738,596 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>'Compare Sleep Steps'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schlafqualität</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78496128"/>
+        <c:axId val="77981568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77906304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="41791"/>
+          <c:min val="41760"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77900416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77900416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77906304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77981568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
+          <c:min val="-0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78496128"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78496128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77981568"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schritte / Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Compare Sleep Steps'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
@@ -10592,8 +11676,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160747904"/>
-        <c:axId val="160749440"/>
+        <c:axId val="154314240"/>
+        <c:axId val="154315776"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10844,11 +11928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160752768"/>
-        <c:axId val="160750976"/>
+        <c:axId val="154335488"/>
+        <c:axId val="154333952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160747904"/>
+        <c:axId val="154314240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -10860,12 +11944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160749440"/>
+        <c:crossAx val="154315776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160749440"/>
+        <c:axId val="154315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -10877,12 +11961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160747904"/>
+        <c:crossAx val="154314240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160750976"/>
+        <c:axId val="154333952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -10893,12 +11977,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160752768"/>
+        <c:crossAx val="154335488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160752768"/>
+        <c:axId val="154335488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10908,13 +11992,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160750976"/>
+        <c:crossAx val="154333952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10934,7 +12019,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -11210,8 +12295,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157479680"/>
-        <c:axId val="157481216"/>
+        <c:axId val="153593344"/>
+        <c:axId val="153594880"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11459,11 +12544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157353472"/>
-        <c:axId val="157351936"/>
+        <c:axId val="153602304"/>
+        <c:axId val="153600768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157479680"/>
+        <c:axId val="153593344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -11475,12 +12560,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157481216"/>
+        <c:crossAx val="153594880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157481216"/>
+        <c:axId val="153594880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11491,12 +12576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157479680"/>
+        <c:crossAx val="153593344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157351936"/>
+        <c:axId val="153600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11506,12 +12591,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157353472"/>
+        <c:crossAx val="153602304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157353472"/>
+        <c:axId val="153602304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11521,13 +12606,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157351936"/>
+        <c:crossAx val="153600768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11547,7 +12633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -11813,8 +12899,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157406336"/>
-        <c:axId val="157407872"/>
+        <c:axId val="153743744"/>
+        <c:axId val="153745280"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -12065,11 +13151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157411200"/>
-        <c:axId val="157409664"/>
+        <c:axId val="153621632"/>
+        <c:axId val="153746816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157406336"/>
+        <c:axId val="153743744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12079,12 +13165,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157407872"/>
+        <c:crossAx val="153745280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157407872"/>
+        <c:axId val="153745280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -12096,12 +13182,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157406336"/>
+        <c:crossAx val="153743744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157409664"/>
+        <c:axId val="153746816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12111,12 +13197,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157411200"/>
+        <c:crossAx val="153621632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157411200"/>
+        <c:axId val="153621632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12126,13 +13212,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157409664"/>
+        <c:crossAx val="153746816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12251,15 +13338,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12274,6 +13361,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25302,7 +26419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -59791,8 +60908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="E1:E32 A1:B32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
+++ b/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
     <sheet name="activities - Kopie" sheetId="1" r:id="rId2"/>
     <sheet name="Compare Sleep Steps" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle3" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle4" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabelle5" sheetId="6" r:id="rId6"/>
+    <sheet name="Step Energy Sleep" sheetId="4" r:id="rId4"/>
+    <sheet name="Steps Sleep" sheetId="5" r:id="rId5"/>
+    <sheet name="Sleep Mood" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'activities - Kopie'!$A$1:$J$1023</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="2287">
   <si>
     <t>Date</t>
   </si>
@@ -6861,16 +6862,31 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Schritte / Tag</t>
-  </si>
-  <si>
     <t>Energieverbrauch in Kilokalorien</t>
   </si>
   <si>
-    <t>Schlafqualität</t>
-  </si>
-  <si>
     <t>Stimmung</t>
+  </si>
+  <si>
+    <t>Schlafqualität in %</t>
+  </si>
+  <si>
+    <t>Anzahl Schritte / Tag</t>
+  </si>
+  <si>
+    <t>Steps - Sleep</t>
+  </si>
+  <si>
+    <t>Mood - Sleep</t>
+  </si>
+  <si>
+    <t>Korrel Sleep - Steps</t>
+  </si>
+  <si>
+    <t>Number of films Nicolas Cage appeared in</t>
+  </si>
+  <si>
+    <t>Films (IMDB)</t>
   </si>
 </sst>
 </file>
@@ -7953,11 +7969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148417536"/>
-        <c:axId val="153228032"/>
+        <c:axId val="133934080"/>
+        <c:axId val="138744576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148417536"/>
+        <c:axId val="133934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7966,7 +7982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153228032"/>
+        <c:crossAx val="138744576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7974,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153228032"/>
+        <c:axId val="138744576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +8001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148417536"/>
+        <c:crossAx val="133934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,6 +8031,1264 @@
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.684198167592199E-2"/>
+          <c:y val="8.7075731032670758E-2"/>
+          <c:w val="0.74146548881196439"/>
+          <c:h val="0.86661271152948982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl Schritte / Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8885</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="145682816"/>
+        <c:axId val="145684352"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schlafqualität in %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="145966208"/>
+        <c:axId val="145685888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="145682816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="41790"/>
+          <c:min val="41760"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145684352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145684352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145682816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145685888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145966208"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145966208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145685888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schlafqualität in %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="142742656"/>
+        <c:axId val="143982592"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stimmung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="145785600"/>
+        <c:axId val="145705984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="142742656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="41790"/>
+          <c:min val="41760"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143982592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="143982592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142742656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145705984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145785600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145785600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="145705984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8080,7 +9354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schritte / Tag</c:v>
+                  <c:v>Anzahl Schritte / Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8317,8 +9591,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153173376"/>
-        <c:axId val="153183360"/>
+        <c:axId val="138694016"/>
+        <c:axId val="138699904"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8332,7 +9606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8566,11 +9840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153198976"/>
-        <c:axId val="153184896"/>
+        <c:axId val="138719616"/>
+        <c:axId val="138701440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153173376"/>
+        <c:axId val="138694016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -8582,12 +9856,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153183360"/>
+        <c:crossAx val="138699904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153183360"/>
+        <c:axId val="138699904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8598,12 +9872,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153173376"/>
+        <c:crossAx val="138694016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153184896"/>
+        <c:axId val="138701440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8613,12 +9887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153198976"/>
+        <c:crossAx val="138719616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153198976"/>
+        <c:axId val="138719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8628,7 +9902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153184896"/>
+        <c:crossAx val="138701440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8679,7 +9953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schritte / Tag</c:v>
+                  <c:v>Anzahl Schritte / Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9154,8 +10428,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154084864"/>
-        <c:axId val="154086400"/>
+        <c:axId val="140654080"/>
+        <c:axId val="140655616"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9169,7 +10443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9406,11 +10680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154114304"/>
-        <c:axId val="154112768"/>
+        <c:axId val="140683520"/>
+        <c:axId val="140681984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154084864"/>
+        <c:axId val="140654080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -9422,12 +10696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154086400"/>
+        <c:crossAx val="140655616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154086400"/>
+        <c:axId val="140655616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -9439,12 +10713,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154084864"/>
+        <c:crossAx val="140654080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154112768"/>
+        <c:axId val="140681984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -9455,12 +10729,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154114304"/>
+        <c:crossAx val="140683520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154114304"/>
+        <c:axId val="140683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9470,7 +10744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154112768"/>
+        <c:crossAx val="140681984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9521,7 +10795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9758,8 +11032,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154211840"/>
-        <c:axId val="154213376"/>
+        <c:axId val="140778496"/>
+        <c:axId val="140792576"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10010,11 +11284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154228992"/>
-        <c:axId val="154227456"/>
+        <c:axId val="140795904"/>
+        <c:axId val="140794112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154211840"/>
+        <c:axId val="140778496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10024,12 +11298,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154213376"/>
+        <c:crossAx val="140792576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154213376"/>
+        <c:axId val="140792576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10040,12 +11314,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154211840"/>
+        <c:crossAx val="140778496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154227456"/>
+        <c:axId val="140794112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10055,12 +11329,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154228992"/>
+        <c:crossAx val="140795904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154228992"/>
+        <c:axId val="140795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10070,7 +11344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154227456"/>
+        <c:crossAx val="140794112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10121,7 +11395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schritte / Tag</c:v>
+                  <c:v>Anzahl Schritte / Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10596,8 +11870,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77906304"/>
-        <c:axId val="77900416"/>
+        <c:axId val="140843264"/>
+        <c:axId val="140861440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10849,7 +12123,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11086,11 +12360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78496128"/>
-        <c:axId val="77981568"/>
+        <c:axId val="140864512"/>
+        <c:axId val="140862976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77906304"/>
+        <c:axId val="140843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -11102,12 +12376,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77900416"/>
+        <c:crossAx val="140861440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77900416"/>
+        <c:axId val="140861440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -11119,12 +12393,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77906304"/>
+        <c:crossAx val="140843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77981568"/>
+        <c:axId val="140862976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.6"/>
@@ -11136,12 +12410,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78496128"/>
+        <c:crossAx val="140864512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78496128"/>
+        <c:axId val="140864512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11151,7 +12425,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77981568"/>
+        <c:crossAx val="140862976"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -11201,7 +12476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schritte / Tag</c:v>
+                  <c:v>Anzahl Schritte / Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11676,8 +12951,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154314240"/>
-        <c:axId val="154315776"/>
+        <c:axId val="58448896"/>
+        <c:axId val="58467840"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11691,7 +12966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11928,11 +13203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154335488"/>
-        <c:axId val="154333952"/>
+        <c:axId val="58495744"/>
+        <c:axId val="58469376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154314240"/>
+        <c:axId val="58448896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -11944,12 +13219,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154315776"/>
+        <c:crossAx val="58467840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154315776"/>
+        <c:axId val="58467840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -11961,15 +13236,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154314240"/>
+        <c:crossAx val="58448896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154333952"/>
+        <c:axId val="58469376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -11977,12 +13253,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154335488"/>
+        <c:crossAx val="58495744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154335488"/>
+        <c:axId val="58495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11992,13 +13268,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154333952"/>
+        <c:crossAx val="58469376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -12040,10 +13316,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.684198167592199E-2"/>
-          <c:y val="8.7075731032670758E-2"/>
-          <c:w val="0.75968041717659829"/>
-          <c:h val="0.86661271152948982"/>
+          <c:x val="5.0425135214262604E-2"/>
+          <c:y val="6.6045190723399316E-2"/>
+          <c:w val="0.87359249296996966"/>
+          <c:h val="0.80474604594159305"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -12058,7 +13334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schritte / Tag</c:v>
+                  <c:v>Anzahl Schritte / Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12295,8 +13571,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153593344"/>
-        <c:axId val="153594880"/>
+        <c:axId val="58999936"/>
+        <c:axId val="59001472"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -12310,7 +13586,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12320,11 +13596,23 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="31750">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -12544,14 +13832,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153602304"/>
-        <c:axId val="153600768"/>
+        <c:axId val="59005184"/>
+        <c:axId val="59003648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153593344"/>
+        <c:axId val="58999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="41791"/>
+          <c:max val="41790"/>
           <c:min val="41760"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12560,12 +13848,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153594880"/>
+        <c:crossAx val="59001472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153594880"/>
+        <c:axId val="59001472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12576,14 +13864,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153593344"/>
+        <c:crossAx val="58999936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153600768"/>
+        <c:axId val="59003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -12591,12 +13880,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153602304"/>
+        <c:crossAx val="59005184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153602304"/>
+        <c:axId val="59005184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12606,13 +13895,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153600768"/>
+        <c:crossAx val="59003648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -12662,7 +13951,878 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Schlafqualität</c:v>
+                  <c:v>Schlafqualität in %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="147056512"/>
+        <c:axId val="150949888"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stimmung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150953344"/>
+        <c:axId val="150951424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="147056512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="41790"/>
+          <c:min val="41760"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150949888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150949888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147056512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150951424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150953344"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150953344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150951424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl Schritte / Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41775</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41779</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41780</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41781</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41786</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41788</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41789</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare Sleep Steps'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8885</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3784</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7232</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare Sleep Steps'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energieverbrauch in Kilokalorien</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12789,102 +14949,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Compare Sleep Steps'!$E$2:$E$32</c:f>
+              <c:f>'Compare Sleep Steps'!$D$2:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.84</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>2146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.84</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76</c:v>
+                  <c:v>1698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72</c:v>
+                  <c:v>2172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12899,22 +15059,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153743744"/>
-        <c:axId val="153745280"/>
+        <c:axId val="144080256"/>
+        <c:axId val="144172160"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare Sleep Steps'!$B$1</c:f>
+              <c:f>'Compare Sleep Steps'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stimmung</c:v>
+                  <c:v>Schlafqualität in %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12928,7 +15088,7 @@
             <c:spPr>
               <a:ln w="31750">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -13041,102 +15201,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Compare Sleep Steps'!$B$2:$B$32</c:f>
+              <c:f>'Compare Sleep Steps'!$E$2:$E$32</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.05</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.25</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.4</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13151,13 +15311,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153621632"/>
-        <c:axId val="153746816"/>
+        <c:axId val="144224640"/>
+        <c:axId val="144173696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153743744"/>
+        <c:axId val="144080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="41790"/>
+          <c:min val="41760"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13165,44 +15327,46 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153745280"/>
+        <c:crossAx val="144172160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153745280"/>
+        <c:axId val="144172160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="9000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144080256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144173696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153743744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="153746816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153621632"/>
+        <c:crossAx val="144224640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153621632"/>
+        <c:axId val="144224640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13212,7 +15376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153746816"/>
+        <c:crossAx val="144173696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13278,16 +15442,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>642936</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13308,16 +15472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13338,16 +15502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>416718</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>607218</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13368,16 +15532,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440530</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13409,14 +15573,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13441,19 +15605,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13483,10 +15647,47 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13502,6 +15703,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>747711</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -60906,39 +63171,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:E32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2277</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2278</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2279</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41760</v>
       </c>
@@ -60955,7 +63220,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41761</v>
       </c>
@@ -60971,8 +63236,14 @@
       <c r="E3" s="9">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41762</v>
       </c>
@@ -60988,8 +63259,18 @@
       <c r="E4" s="9">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f>CORREL(H3:H9,I3:I9)</f>
+        <v>-0.19764235376052372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41763</v>
       </c>
@@ -61005,8 +63286,14 @@
       <c r="E5" s="9">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41764</v>
       </c>
@@ -61022,8 +63309,14 @@
       <c r="E6" s="9">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41765</v>
       </c>
@@ -61039,8 +63332,14 @@
       <c r="E7" s="9">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41766</v>
       </c>
@@ -61056,8 +63355,14 @@
       <c r="E8" s="9">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41767</v>
       </c>
@@ -61073,8 +63378,14 @@
       <c r="E9" s="9">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41768</v>
       </c>
@@ -61091,7 +63402,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41769</v>
       </c>
@@ -61108,7 +63419,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41770</v>
       </c>
@@ -61125,7 +63436,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41771</v>
       </c>
@@ -61142,7 +63453,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41772</v>
       </c>
@@ -61158,8 +63469,12 @@
       <c r="E14" s="9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>CORREL(C27:C32,E27:E32)</f>
+        <v>4.4274445317915218E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41773</v>
       </c>
@@ -61176,7 +63491,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41774</v>
       </c>
@@ -61193,7 +63508,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41775</v>
       </c>
@@ -61209,8 +63524,41 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>109</v>
+      </c>
+      <c r="I17">
+        <v>102</v>
+      </c>
+      <c r="J17">
+        <v>102</v>
+      </c>
+      <c r="K17">
+        <v>98</v>
+      </c>
+      <c r="L17">
+        <v>85</v>
+      </c>
+      <c r="M17">
+        <v>95</v>
+      </c>
+      <c r="N17">
+        <v>96</v>
+      </c>
+      <c r="O17">
+        <v>98</v>
+      </c>
+      <c r="P17">
+        <v>123</v>
+      </c>
+      <c r="Q17">
+        <v>94</v>
+      </c>
+      <c r="R17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41776</v>
       </c>
@@ -61226,8 +63574,44 @@
       <c r="E18" s="9">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>2285</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41777</v>
       </c>
@@ -61243,8 +63627,11 @@
       <c r="E19" s="9">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41778</v>
       </c>
@@ -61261,7 +63648,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41779</v>
       </c>
@@ -61278,7 +63665,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41780</v>
       </c>
@@ -61294,8 +63681,12 @@
       <c r="E22" s="9">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f>CORREL(H17:R17,H18:R18)</f>
+        <v>0.66600434866791713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41781</v>
       </c>
@@ -61312,7 +63703,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41782</v>
       </c>
@@ -61329,7 +63720,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41783</v>
       </c>
@@ -61346,7 +63737,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41784</v>
       </c>
@@ -61363,7 +63754,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41785</v>
       </c>
@@ -61380,7 +63771,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41786</v>
       </c>
@@ -61397,7 +63788,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41787</v>
       </c>
@@ -61414,7 +63805,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41788</v>
       </c>
@@ -61431,7 +63822,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41789</v>
       </c>
@@ -61448,7 +63839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41790</v>
       </c>
@@ -61465,9 +63856,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D37">
+        <f>CORREL(C2:C32,E2:E32)</f>
+        <v>-0.19778444981118204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -61476,13 +63877,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -61492,13 +63893,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -61506,13 +63908,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N32:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="32" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
+++ b/00_Projektdokumentation/01_Dokumentation/CSV/activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21315" windowHeight="10050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -7969,11 +7969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133934080"/>
-        <c:axId val="138744576"/>
+        <c:axId val="60262656"/>
+        <c:axId val="60264448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133934080"/>
+        <c:axId val="60262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7982,7 +7982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138744576"/>
+        <c:crossAx val="60264448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7990,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138744576"/>
+        <c:axId val="60264448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8001,14 +8001,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133934080"/>
+        <c:crossAx val="60262656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8310,8 +8309,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145682816"/>
-        <c:axId val="145684352"/>
+        <c:axId val="64652032"/>
+        <c:axId val="64653568"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -8571,11 +8570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145966208"/>
-        <c:axId val="145685888"/>
+        <c:axId val="64656896"/>
+        <c:axId val="64655360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145682816"/>
+        <c:axId val="64652032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -8587,12 +8586,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145684352"/>
+        <c:crossAx val="64653568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145684352"/>
+        <c:axId val="64653568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8603,12 +8602,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145682816"/>
+        <c:crossAx val="64652032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145685888"/>
+        <c:axId val="64655360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,12 +8617,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145966208"/>
+        <c:crossAx val="64656896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145966208"/>
+        <c:axId val="64656896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8633,7 +8632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145685888"/>
+        <c:crossAx val="64655360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8938,8 +8937,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142742656"/>
-        <c:axId val="143982592"/>
+        <c:axId val="64668416"/>
+        <c:axId val="64669952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9202,11 +9201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145785600"/>
-        <c:axId val="145705984"/>
+        <c:axId val="64681472"/>
+        <c:axId val="64679936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142742656"/>
+        <c:axId val="64668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -9218,12 +9217,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143982592"/>
+        <c:crossAx val="64669952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143982592"/>
+        <c:axId val="64669952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -9235,12 +9234,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142742656"/>
+        <c:crossAx val="64668416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145705984"/>
+        <c:axId val="64679936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9250,12 +9249,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145785600"/>
+        <c:crossAx val="64681472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145785600"/>
+        <c:axId val="64681472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,7 +9264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145705984"/>
+        <c:crossAx val="64679936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9591,8 +9590,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138694016"/>
-        <c:axId val="138699904"/>
+        <c:axId val="61946496"/>
+        <c:axId val="61952384"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9840,11 +9839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138719616"/>
-        <c:axId val="138701440"/>
+        <c:axId val="61955456"/>
+        <c:axId val="61953920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138694016"/>
+        <c:axId val="61946496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -9856,12 +9855,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138699904"/>
+        <c:crossAx val="61952384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138699904"/>
+        <c:axId val="61952384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9872,12 +9871,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138694016"/>
+        <c:crossAx val="61946496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138701440"/>
+        <c:axId val="61953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9887,12 +9886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138719616"/>
+        <c:crossAx val="61955456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138719616"/>
+        <c:axId val="61955456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9902,7 +9901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138701440"/>
+        <c:crossAx val="61953920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10428,8 +10427,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140654080"/>
-        <c:axId val="140655616"/>
+        <c:axId val="61977344"/>
+        <c:axId val="61978880"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10680,11 +10679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140683520"/>
-        <c:axId val="140681984"/>
+        <c:axId val="61986304"/>
+        <c:axId val="61984768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140654080"/>
+        <c:axId val="61977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -10696,12 +10695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140655616"/>
+        <c:crossAx val="61978880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140655616"/>
+        <c:axId val="61978880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -10713,12 +10712,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140654080"/>
+        <c:crossAx val="61977344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140681984"/>
+        <c:axId val="61984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -10729,12 +10728,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140683520"/>
+        <c:crossAx val="61986304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140683520"/>
+        <c:axId val="61986304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10744,7 +10743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140681984"/>
+        <c:crossAx val="61984768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11032,8 +11031,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140778496"/>
-        <c:axId val="140792576"/>
+        <c:axId val="62022400"/>
+        <c:axId val="62023936"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11284,11 +11283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140795904"/>
-        <c:axId val="140794112"/>
+        <c:axId val="62027264"/>
+        <c:axId val="62025728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140778496"/>
+        <c:axId val="62022400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11298,12 +11297,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140792576"/>
+        <c:crossAx val="62023936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140792576"/>
+        <c:axId val="62023936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11314,12 +11313,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140778496"/>
+        <c:crossAx val="62022400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140794112"/>
+        <c:axId val="62025728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11329,12 +11328,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140795904"/>
+        <c:crossAx val="62027264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140795904"/>
+        <c:axId val="62027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11344,7 +11343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140794112"/>
+        <c:crossAx val="62025728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11870,8 +11869,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140843264"/>
-        <c:axId val="140861440"/>
+        <c:axId val="62402560"/>
+        <c:axId val="62404096"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -12360,11 +12359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140864512"/>
-        <c:axId val="140862976"/>
+        <c:axId val="62448384"/>
+        <c:axId val="62405632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140843264"/>
+        <c:axId val="62402560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41791"/>
@@ -12376,12 +12375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140861440"/>
+        <c:crossAx val="62404096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140861440"/>
+        <c:axId val="62404096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -12393,12 +12392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140843264"/>
+        <c:crossAx val="62402560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140862976"/>
+        <c:axId val="62405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.6"/>
@@ -12410,12 +12409,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140864512"/>
+        <c:crossAx val="62448384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140864512"/>
+        <c:axId val="62448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12425,7 +12424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140862976"/>
+        <c:crossAx val="62405632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12951,8 +12950,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58448896"/>
-        <c:axId val="58467840"/>
+        <c:axId val="62637952"/>
+        <c:axId val="62639488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -13203,11 +13202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58495744"/>
-        <c:axId val="58469376"/>
+        <c:axId val="62642816"/>
+        <c:axId val="62641280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58448896"/>
+        <c:axId val="62637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -13219,12 +13218,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58467840"/>
+        <c:crossAx val="62639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58467840"/>
+        <c:axId val="62639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -13236,12 +13235,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58448896"/>
+        <c:crossAx val="62637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58469376"/>
+        <c:axId val="62641280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -13253,12 +13252,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58495744"/>
+        <c:crossAx val="62642816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58495744"/>
+        <c:axId val="62642816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13268,14 +13267,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58469376"/>
+        <c:crossAx val="62641280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13571,8 +13569,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58999936"/>
-        <c:axId val="59001472"/>
+        <c:axId val="62749312"/>
+        <c:axId val="62751104"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -13832,11 +13830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59005184"/>
-        <c:axId val="59003648"/>
+        <c:axId val="62754176"/>
+        <c:axId val="62752640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58999936"/>
+        <c:axId val="62749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -13848,12 +13846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59001472"/>
+        <c:crossAx val="62751104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59001472"/>
+        <c:axId val="62751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13864,12 +13862,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58999936"/>
+        <c:crossAx val="62749312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59003648"/>
+        <c:axId val="62752640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13880,12 +13878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59005184"/>
+        <c:crossAx val="62754176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59005184"/>
+        <c:axId val="62754176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13895,14 +13893,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59003648"/>
+        <c:crossAx val="62752640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14200,8 +14197,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147056512"/>
-        <c:axId val="150949888"/>
+        <c:axId val="62934016"/>
+        <c:axId val="62964480"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -14464,11 +14461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150953344"/>
-        <c:axId val="150951424"/>
+        <c:axId val="62971904"/>
+        <c:axId val="62966016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147056512"/>
+        <c:axId val="62934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -14480,12 +14477,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150949888"/>
+        <c:crossAx val="62964480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150949888"/>
+        <c:axId val="62964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -14498,12 +14495,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147056512"/>
+        <c:crossAx val="62934016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150951424"/>
+        <c:axId val="62966016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14513,12 +14510,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150953344"/>
+        <c:crossAx val="62971904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150953344"/>
+        <c:axId val="62971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14528,7 +14525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150951424"/>
+        <c:crossAx val="62966016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15059,8 +15056,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144080256"/>
-        <c:axId val="144172160"/>
+        <c:axId val="63038592"/>
+        <c:axId val="63040128"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15311,11 +15308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144224640"/>
-        <c:axId val="144173696"/>
+        <c:axId val="63043456"/>
+        <c:axId val="63041920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144080256"/>
+        <c:axId val="63038592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41790"/>
@@ -15327,12 +15324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144172160"/>
+        <c:crossAx val="63040128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144172160"/>
+        <c:axId val="63040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000"/>
@@ -15344,12 +15341,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144080256"/>
+        <c:crossAx val="63038592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144173696"/>
+        <c:axId val="63041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -15361,12 +15358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144224640"/>
+        <c:crossAx val="63043456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144224640"/>
+        <c:axId val="63043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15376,7 +15373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144173696"/>
+        <c:crossAx val="63041920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28147,7 +28144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -63173,8 +63170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63908,7 +63905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
